--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Discreto 2</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -474,7 +479,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +499,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +519,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +539,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +559,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +579,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +599,10 @@
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +619,10 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +639,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +659,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +679,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +699,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +719,10 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +739,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +759,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +779,330 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>P0X/C</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C/A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P0X/M</t>
+          <t>Densidade</t>
         </is>
       </c>
     </row>
@@ -460,13 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0008310000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -474,97 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0008310000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0008310000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0008310000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>90</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>90</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>200</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.002</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Densidade</t>
+          <t>Furo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pino</t>
         </is>
       </c>
     </row>
@@ -450,7 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>950</v>
+        <v>40.20018007729973</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34.12010804637984</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +466,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>59.79981992270027</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34.12010804637984</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>40.20018007729973</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45.87989195362016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>59.79981992270027</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.87989195362016</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Furo</t>
+          <t>POX/C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pino</t>
+          <t>C/A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>POX/M</t>
         </is>
       </c>
     </row>
@@ -455,10 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40.20018007729973</v>
+        <v>90.90909091000002</v>
       </c>
       <c r="C2" t="n">
-        <v>34.12010804637984</v>
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008314289999999998</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>59.79981992270027</v>
+        <v>200</v>
       </c>
       <c r="C3" t="n">
-        <v>34.12010804637984</v>
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0008314289999999998</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>40.20018007729973</v>
+        <v>90.90909091000002</v>
       </c>
       <c r="C4" t="n">
-        <v>45.87989195362016</v>
+        <v>0.22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0008314289999999998</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +502,69 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59.79981992270027</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>45.87989195362016</v>
+        <v>0.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0008314289999999998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90.90909091000002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90.90909091000002</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/DOE_Full_Factorial.xlsx
+++ b/datasets/DOE_Full_Factorial.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>Densidade</t>
+  </si>
+  <si>
+    <t>Numero de Pratos</t>
+  </si>
+  <si>
+    <t>Discreto 2</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,154 +388,674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Simulation</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>POX/C</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>C/A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>POX/M</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>90.90909091000002</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0008314289999999998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0008314289999999998</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>90.90909091000002</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0008314289999999998</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>200</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0008314289999999998</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>90.90909091000002</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02499999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>90.90909091000002</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>200</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.002</v>
+      <c r="B9">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C28">
+        <v>2000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>717.7573186524264</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>882.2426813475736</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>